--- a/biology/Botanique/Naviculaceae/Naviculaceae.xlsx
+++ b/biology/Botanique/Naviculaceae/Naviculaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Naviculaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Bacillariophyceae et de l’ordre des Naviculales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Navicula, issu du latin navicula (de navis, navire, barque, et -ula, petite), « petit bateau », en référence à la forme de cette diatomée.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (10 mai 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (10 mai 2022) :
 Altana Kulikovskiy, Lange-Bertalot &amp; Metzeltin, 2012
 Alveovallum Lange-Bertalot &amp; Krammer, 2000
 Amphiraphia J.-Y.Chen &amp; H.-Z.Zhu, 1983
@@ -597,7 +613,7 @@
 Stauroptera Ehrenberg, 1843
 Tetragramma Ehrenberg, 1843
 Trachyneis P.T.Cleve, 1894
-Selon GBIF       (1er mai 2021)[3] :
+Selon GBIF       (1er mai 2021) :
 Adlafia G.Moser, H.Lange-Bertalot &amp; D.Metzeltin, 1998
 Altana M.S.Kulikovskiy, H.Lange-Bertalot &amp; D.Metzeltin, 2012
 Alveovallum H.Lange-Bertalot &amp; K.Krammer, 2000
@@ -684,7 +700,7 @@
 Undatella
 Veigaludwigia H.Lange-Bertalot &amp; U.Rumich, 2007
 Vibrio O.F.Müller, 1773 nomen dubium
-Selon World Register of Marine Species                               (1er mai 2021)[4] :
+Selon World Register of Marine Species                               (1er mai 2021) :
 Adlafia G. Moser, H. Lange-Bertalot &amp; D. Metzeltin, 1998
 Altana M.S.Kulikovskiy, H.Lange-Bertalot &amp; D.Metzeltin, 2012
 Alveovallum H. Lange-Bertalot &amp; K. Krammer in K. Krammer, 2000
@@ -775,10 +791,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Naviculaceae Kütz. 1844[5],[3].
-La famille des Naviculaceae a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Naviculaceae Kütz. 1844,.
+La famille des Naviculaceae a pour synonymes :
 Amphiraphiaceae Chen et Zhu, 1983
 Vibro Nardo, 1847</t>
         </is>
